--- a/Для сайта/ГРП-1/frame.xlsx
+++ b/Для сайта/ГРП-1/frame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\ГРП-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E937735-A3AF-4672-9E22-20E5174475AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675AC10-8D1B-4F16-A5AB-CE42BC0BB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Принципильная схема</t>
   </si>
   <si>
-    <t>05.25</t>
-  </si>
-  <si>
     <t>Строительство водогрейной котельной 400Гкал/час на территории Ивановской ТЭЦ-2</t>
   </si>
   <si>
@@ -91,7 +88,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>878.2023-АСУ ТП.ТЗ2 (АСУ ГРП-1)</t>
+    <t>07.25</t>
+  </si>
+  <si>
+    <t>878.2023-АСУ ТП (АСУ ГРП-1)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,16 +514,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Для сайта/ГРП-1/frame.xlsx
+++ b/Для сайта/ГРП-1/frame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\ГРП-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675AC10-8D1B-4F16-A5AB-CE42BC0BB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5DF07-C6F7-41D0-9B5B-62CB3608FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>РФ, Ивановская область, г.Иваново, ул. Суворова, 76</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>07.25</t>
   </si>
   <si>
-    <t>878.2023-АСУ ТП (АСУ ГРП-1)</t>
+    <t>878.2023-АСУ ТП.СБ.2</t>
+  </si>
+  <si>
+    <t>225</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -529,13 +529,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
